--- a/CTN.xlsx
+++ b/CTN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khristine.bosquillos\Desktop\Acquisition Auto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAJ-LAP-012\Desktop\acquisition_and_social_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32016CB8-C89E-46BD-8CCA-F5644989093A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5A30DF-9D32-49E3-8F2C-2DCED3EBFF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{59220D66-50E2-439E-9D57-8E166CB11F6C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{59220D66-50E2-439E-9D57-8E166CB11F6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11D89B8-D271-41EE-AC8D-2C34B12441B9}">
   <dimension ref="A1:A61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="O56" sqref="O56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
